--- a/medicine/Maladies infectieuses/Deuxième_pandémie_de_peste/Deuxième_pandémie_de_peste.xlsx
+++ b/medicine/Maladies infectieuses/Deuxième_pandémie_de_peste/Deuxième_pandémie_de_peste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Deuxi%C3%A8me_pand%C3%A9mie_de_peste</t>
+          <t>Deuxième_pandémie_de_peste</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La deuxième pandémie de peste est une série de vagues d'épidémies de peste. La deuxième pandémie débute avec la peste noire, qui atteint l'Europe continentale au milieu du XIVe siècle et va ainsi régulièrement resurgir jusqu'au XIXe siècle, de l'Europe au bassin méditerranéen et jusqu'au Moyen-Orient.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Deuxi%C3%A8me_pand%C3%A9mie_de_peste</t>
+          <t>Deuxième_pandémie_de_peste</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On dénombre trois grands épisodes de pandémie de peste :
 La peste de Justinien : de 541 jusqu'en 767 ;
 Deuxième pandémie : milieu du XIVe siècle jusqu'au XIXe siècle ;
 Troisième pandémie : milieu du XIXe siècle jusqu'au XXe siècle.
-Les résurgences de la deuxième pandémie de peste seront très différentes les unes des autres, à la fois par leur mortalité, par leur extension géographique et par leur durée. La peste qui frappe l'Empire ottoman entre 1812 et 1819 est la plus remarquable. Pendant sept années, la maladie frappe l'Empire de Constantinople à Alexandrie en passant par les Balkans[1]. D'autres résurgences auront des impacts plus limités et localisés.
+Les résurgences de la deuxième pandémie de peste seront très différentes les unes des autres, à la fois par leur mortalité, par leur extension géographique et par leur durée. La peste qui frappe l'Empire ottoman entre 1812 et 1819 est la plus remarquable. Pendant sept années, la maladie frappe l'Empire de Constantinople à Alexandrie en passant par les Balkans. D'autres résurgences auront des impacts plus limités et localisés.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Deuxi%C3%A8me_pand%C3%A9mie_de_peste</t>
+          <t>Deuxième_pandémie_de_peste</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Les principales résurgences durant la deuxième pandémie de peste</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tableau suivant n'est pas exhaustif, il démontre la forte récurrence des épidémies de peste pendant cinq siècles[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tableau suivant n'est pas exhaustif, il démontre la forte récurrence des épidémies de peste pendant cinq siècles,.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Deuxi%C3%A8me_pand%C3%A9mie_de_peste</t>
+          <t>Deuxième_pandémie_de_peste</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,12 @@
           <t>Conséquences</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La deuxième pandémie de peste marque fortement les sociétés de l'époque. Le peintre Horace Vernet en fit un tableau en 1822, intitulé Peste à Barcelone en 1819. Il est conservé au musée de l'Ermitage à Saint-Pétersbourg[22].
-Outre le bilan humain immense propre à la peste, l'incapacité des contemporains à comprendre et encore plus à soigner la maladie laisse libre cours à de nombreuses dérives comme le groupe des flagellants. La recherche de coupables parmi les minorités (les Juifs, lépreux, sorcières, mendiants et autres « semeurs de peste ») ne fera qu’alourdir le nombre de victimes[23].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La deuxième pandémie de peste marque fortement les sociétés de l'époque. Le peintre Horace Vernet en fit un tableau en 1822, intitulé Peste à Barcelone en 1819. Il est conservé au musée de l'Ermitage à Saint-Pétersbourg.
+Outre le bilan humain immense propre à la peste, l'incapacité des contemporains à comprendre et encore plus à soigner la maladie laisse libre cours à de nombreuses dérives comme le groupe des flagellants. La recherche de coupables parmi les minorités (les Juifs, lépreux, sorcières, mendiants et autres « semeurs de peste ») ne fera qu’alourdir le nombre de victimes.
 </t>
         </is>
       </c>
